--- a/RedCap_SubjectsInfo/Sequencing Files_SGLT2.xlsx
+++ b/RedCap_SubjectsInfo/Sequencing Files_SGLT2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="76">
   <si>
     <t>Counts_List</t>
   </si>
@@ -98,6 +98,9 @@
     <t>76656_V11</t>
   </si>
   <si>
+    <t>76656_V5</t>
+  </si>
+  <si>
     <t>76658_V11</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
   </si>
   <si>
     <t>76656_V11_3rd</t>
+  </si>
+  <si>
+    <t>76656_V5_2nd</t>
   </si>
   <si>
     <t>76658_V11_2nd</t>
@@ -345,19 +351,19 @@
         <v>#N/A</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" t="n">
         <v>2.021082E7</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -380,22 +386,22 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" t="n">
         <v>2.021101E7</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -415,25 +421,25 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -456,22 +462,22 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J5" t="n">
         <v>2.021101E7</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -491,25 +497,25 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J6" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -532,22 +538,22 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J7" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -567,25 +573,25 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="e">
         <v>#N/A</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J8" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -605,25 +611,25 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="e">
         <v>#N/A</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J9" t="n">
         <v>2.0220919E7</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -646,22 +652,22 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" t="n">
         <v>2.021101E7</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -681,25 +687,25 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J11" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -725,19 +731,19 @@
         <v>#N/A</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J12" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -757,25 +763,25 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="e">
         <v>#N/A</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -795,25 +801,25 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="e">
         <v>#N/A</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J14" t="n">
         <v>2.022081E7</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -836,22 +842,22 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J15" t="n">
         <v>2.021101E7</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -871,25 +877,25 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J16" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -915,19 +921,19 @@
         <v>#N/A</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J17" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -947,25 +953,25 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="e">
         <v>#N/A</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J18" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -985,25 +991,25 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" t="e">
         <v>#N/A</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J19" t="n">
         <v>2.022081E7</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -1026,22 +1032,22 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J20" t="n">
         <v>2.021101E7</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -1061,25 +1067,25 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J21" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -1099,25 +1105,25 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="e">
         <v>#N/A</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J22" t="n">
         <v>2.0220929E7</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -1143,19 +1149,19 @@
         <v>#N/A</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J23" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -1175,25 +1181,25 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" t="e">
         <v>#N/A</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J24" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -1213,25 +1219,25 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="e">
         <v>#N/A</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J25" t="n">
         <v>2.022081E7</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -1254,22 +1260,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J26" t="n">
         <v>2.021101E7</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -1289,25 +1295,25 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J27" t="n">
         <v>2.0211117E7</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1333,19 +1339,19 @@
         <v>#N/A</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J28" t="n">
         <v>2.0220624E7</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -1365,25 +1371,25 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" t="e">
         <v>#N/A</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J29" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -1403,39 +1409,39 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J30" t="n">
         <v>2.022081E7</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>140.0</v>
+        <v>109.0</v>
       </c>
       <c r="B31" t="n">
-        <v>80.0</v>
+        <v>67.0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.022062E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -1447,299 +1453,299 @@
         <v>#N/A</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J31" t="n">
-        <v>2.0220624E7</v>
+        <v>2.0211117E7</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>186.0</v>
+        <v>315.0</v>
       </c>
       <c r="B32" t="n">
-        <v>104.0</v>
+        <v>142.0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0220718E7</v>
+        <v>2.0220926E7</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" t="e">
         <v>#N/A</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J32" t="n">
-        <v>2.022072E7</v>
+        <v>2.022101E7</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>237.0</v>
+        <v>140.0</v>
       </c>
       <c r="B33" t="n">
-        <v>122.0</v>
+        <v>80.0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.0220801E7</v>
+        <v>2.022062E7</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G33" t="e">
         <v>#N/A</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J33" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220624E7</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110.0</v>
+        <v>186.0</v>
       </c>
       <c r="B34" t="n">
-        <v>68.0</v>
+        <v>104.0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0211117E7</v>
+        <v>2.022072E7</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>142.0</v>
+        <v>237.0</v>
       </c>
       <c r="B35" t="n">
-        <v>82.0</v>
+        <v>122.0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.022062E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J35" t="n">
-        <v>2.0220624E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>306.0</v>
+        <v>110.0</v>
       </c>
       <c r="B36" t="n">
-        <v>133.0</v>
+        <v>68.0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="e">
-        <v>#N/A</v>
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J36" t="n">
-        <v>2.0220919E7</v>
+        <v>2.0211117E7</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>178.0</v>
+        <v>142.0</v>
       </c>
       <c r="B37" t="n">
-        <v>96.0</v>
+        <v>82.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0220715E7</v>
+        <v>2.022062E7</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G37" t="e">
         <v>#N/A</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J37" t="n">
-        <v>2.022072E7</v>
+        <v>2.0220624E7</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>312.0</v>
+        <v>306.0</v>
       </c>
       <c r="B38" t="n">
-        <v>139.0</v>
+        <v>133.0</v>
       </c>
       <c r="C38" t="n">
         <v>2.0220914E7</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38" t="e">
         <v>#N/A</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J38" t="n">
         <v>2.0220919E7</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>143.0</v>
+        <v>178.0</v>
       </c>
       <c r="B39" t="n">
-        <v>83.0</v>
+        <v>96.0</v>
       </c>
       <c r="C39" t="n">
-        <v>2.022062E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>31</v>
@@ -1751,30 +1757,30 @@
         <v>#N/A</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J39" t="n">
-        <v>2.0220624E7</v>
+        <v>2.022072E7</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>191.0</v>
+        <v>312.0</v>
       </c>
       <c r="B40" t="n">
-        <v>109.0</v>
+        <v>139.0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.0220718E7</v>
+        <v>2.0220914E7</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1783,153 +1789,153 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J40" t="n">
-        <v>2.022072E7</v>
+        <v>2.0220919E7</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>241.0</v>
+        <v>143.0</v>
       </c>
       <c r="B41" t="n">
-        <v>126.0</v>
+        <v>83.0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.0220801E7</v>
+        <v>2.022062E7</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G41" t="e">
         <v>#N/A</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J41" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220624E7</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>179.0</v>
+        <v>191.0</v>
       </c>
       <c r="B42" t="n">
-        <v>97.0</v>
+        <v>109.0</v>
       </c>
       <c r="C42" t="n">
-        <v>2.0220715E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G42" t="e">
         <v>#N/A</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J42" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>313.0</v>
+        <v>241.0</v>
       </c>
       <c r="B43" t="n">
-        <v>140.0</v>
+        <v>126.0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G43" t="e">
         <v>#N/A</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J43" t="n">
-        <v>2.0220919E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>144.0</v>
+        <v>179.0</v>
       </c>
       <c r="B44" t="n">
-        <v>84.0</v>
+        <v>97.0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.022062E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
@@ -1941,30 +1947,30 @@
         <v>#N/A</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J44" t="n">
-        <v>2.0220624E7</v>
+        <v>2.022072E7</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>192.0</v>
+        <v>313.0</v>
       </c>
       <c r="B45" t="n">
-        <v>110.0</v>
+        <v>140.0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0220718E7</v>
+        <v>2.0220914E7</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -1973,147 +1979,147 @@
         <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G45" t="e">
         <v>#N/A</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J45" t="n">
-        <v>2.022072E7</v>
+        <v>2.0220919E7</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>242.0</v>
+        <v>144.0</v>
       </c>
       <c r="B46" t="n">
-        <v>127.0</v>
+        <v>84.0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0220801E7</v>
+        <v>2.022062E7</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G46" t="e">
         <v>#N/A</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J46" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220624E7</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>180.0</v>
+        <v>192.0</v>
       </c>
       <c r="B47" t="n">
-        <v>98.0</v>
+        <v>110.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0220715E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G47" t="e">
         <v>#N/A</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J47" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>308.0</v>
+        <v>242.0</v>
       </c>
       <c r="B48" t="n">
-        <v>135.0</v>
+        <v>127.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220801E7</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G48" t="e">
         <v>#N/A</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J48" t="n">
-        <v>2.0220919E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>176.0</v>
+        <v>180.0</v>
       </c>
       <c r="B49" t="n">
-        <v>94.0</v>
+        <v>98.0</v>
       </c>
       <c r="C49" t="n">
         <v>2.0220715E7</v>
@@ -2131,68 +2137,68 @@
         <v>#N/A</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J49" t="n">
         <v>2.022072E7</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>311.0</v>
+        <v>308.0</v>
       </c>
       <c r="B50" t="n">
-        <v>138.0</v>
+        <v>135.0</v>
       </c>
       <c r="C50" t="n">
         <v>2.0220914E7</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G50" t="e">
         <v>#N/A</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J50" t="n">
         <v>2.0220919E7</v>
       </c>
       <c r="K50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>317.0</v>
+        <v>176.0</v>
       </c>
       <c r="B51" t="n">
-        <v>144.0</v>
+        <v>94.0</v>
       </c>
       <c r="C51" t="n">
-        <v>2.0220926E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2201,74 +2207,74 @@
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G51" t="e">
         <v>#N/A</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0220929E7</v>
+        <v>2.022072E7</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>177.0</v>
+        <v>311.0</v>
       </c>
       <c r="B52" t="n">
-        <v>95.0</v>
+        <v>138.0</v>
       </c>
       <c r="C52" t="n">
-        <v>2.0220715E7</v>
+        <v>2.0220914E7</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G52" t="e">
         <v>#N/A</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J52" t="n">
-        <v>2.022072E7</v>
+        <v>2.0220919E7</v>
       </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>309.0</v>
+        <v>317.0</v>
       </c>
       <c r="B53" t="n">
-        <v>136.0</v>
+        <v>144.0</v>
       </c>
       <c r="C53" t="n">
-        <v>2.0220914E7</v>
+        <v>2.0220926E7</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2277,25 +2283,101 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G53" t="e">
         <v>#N/A</v>
       </c>
       <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.0220929E7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.0220715E7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.022072E7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.0220914E7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
         <v>70</v>
       </c>
-      <c r="I53" t="s">
-        <v>71</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="G55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" t="n">
         <v>2.0220919E7</v>
       </c>
-      <c r="K53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L53" t="s">
-        <v>73</v>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
